--- a/biology/Botanique/Echium_candicans/Echium_candicans.xlsx
+++ b/biology/Botanique/Echium_candicans/Echium_candicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echium candicans, la Vipérine de Madère, est une espèce végétale de la famille des Boraginaceae. C'est une plante vivace. Elle appartient au genre des vipérines. 
 La Vipérine de Madère est endémiques de l'île. On la trouve comme plante ornementale dans de nombreux pays.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace pouvant atteindre 1,5 m de hauteur, avec des épis floraux atteignant 30 centimètres de longueur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace pouvant atteindre 1,5 m de hauteur, avec des épis floraux atteignant 30 centimètres de longueur.
 Fleur nectarifère.
 			Infructescence
 			Après floraison, à Madère.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones dégagées de moyenne et haute altitude à Madère.
 </t>
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La vipérine de Madère est cultivée comme plante ornementale.
 </t>
